--- a/result_pred.xlsx
+++ b/result_pred.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="11">
   <si>
     <t>액션</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,13 +447,13 @@
         <v>10000000</v>
       </c>
       <c r="D2">
-        <v>370</v>
+        <v>760</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>9999630</v>
+        <v>9999240</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -470,74 +470,74 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>10135630</v>
+        <v>9939325</v>
       </c>
       <c r="D3">
-        <v>14020</v>
+        <v>14001</v>
       </c>
       <c r="E3">
-        <v>10121610</v>
+        <v>9925324</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>135630</v>
+        <v>-60675</v>
       </c>
       <c r="H3">
-        <v>1.013563</v>
+        <v>0.9939325</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>10098370</v>
+        <v>10086931</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <v>14001</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>10072930</v>
       </c>
       <c r="F4">
-        <v>10098120</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>98370</v>
+        <v>86931</v>
       </c>
       <c r="H4">
-        <v>1.009837</v>
+        <v>1.0086931</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>10037095</v>
+        <v>10020542</v>
       </c>
       <c r="D5">
-        <v>23415</v>
+        <v>14001</v>
       </c>
       <c r="E5">
-        <v>10013680</v>
+        <v>10006541</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>37095</v>
+        <v>20542</v>
       </c>
       <c r="H5">
-        <v>1.0037095</v>
+        <v>1.0020542</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,126 +548,126 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>10186015</v>
+        <v>10007062</v>
       </c>
       <c r="D6">
-        <v>23415</v>
+        <v>14001</v>
       </c>
       <c r="E6">
-        <v>10162600</v>
+        <v>9993061</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>186015</v>
+        <v>7062</v>
       </c>
       <c r="H6">
-        <v>1.0186015</v>
+        <v>1.0007062</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>10119035</v>
+        <v>9977406</v>
       </c>
       <c r="D7">
-        <v>23415</v>
+        <v>1806</v>
       </c>
       <c r="E7">
-        <v>10095620</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>9975600</v>
       </c>
       <c r="G7">
-        <v>119035</v>
+        <v>-22594</v>
       </c>
       <c r="H7">
-        <v>1.0119035</v>
+        <v>0.9977406</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>10105435</v>
+        <v>10173246</v>
       </c>
       <c r="D8">
-        <v>23415</v>
+        <v>25373</v>
       </c>
       <c r="E8">
-        <v>10082020</v>
+        <v>10147873</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>105435</v>
+        <v>173246</v>
       </c>
       <c r="H8">
-        <v>1.0105435</v>
+        <v>1.0173246</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>10075515</v>
+        <v>10101352</v>
       </c>
       <c r="D9">
-        <v>2115</v>
+        <v>25373</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>10075979</v>
       </c>
       <c r="F9">
-        <v>10073400</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>75515</v>
+        <v>101352</v>
       </c>
       <c r="H9">
-        <v>1.0075515</v>
+        <v>1.0101352</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>10273275</v>
+        <v>9864032</v>
       </c>
       <c r="D10">
-        <v>9094</v>
+        <v>25373</v>
       </c>
       <c r="E10">
-        <v>10264181</v>
+        <v>9838659</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>273275</v>
+        <v>-135968</v>
       </c>
       <c r="H10">
-        <v>1.0273275</v>
+        <v>0.9864032</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,22 +678,22 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>10200557</v>
+        <v>10037834</v>
       </c>
       <c r="D11">
-        <v>1357</v>
+        <v>184</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10199200</v>
+        <v>10037650</v>
       </c>
       <c r="G11">
-        <v>200557</v>
+        <v>37834</v>
       </c>
       <c r="H11">
-        <v>1.0200557</v>
+        <v>1.0037834</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,22 +704,22 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>10432357</v>
+        <v>9881184</v>
       </c>
       <c r="D12">
-        <v>1687</v>
+        <v>18006</v>
       </c>
       <c r="E12">
-        <v>10430670</v>
+        <v>9863178</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>432357</v>
+        <v>-118816</v>
       </c>
       <c r="H12">
-        <v>1.0432357</v>
+        <v>0.9881184</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,22 +730,22 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>10616617</v>
+        <v>9954192</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>3072</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10616585</v>
+        <v>9951120</v>
       </c>
       <c r="G13">
-        <v>616617</v>
+        <v>-45808</v>
       </c>
       <c r="H13">
-        <v>1.0616617</v>
+        <v>0.9954191999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,22 +756,22 @@
         <v>9</v>
       </c>
       <c r="C14">
-        <v>10450932</v>
+        <v>9941952</v>
       </c>
       <c r="D14">
-        <v>4134</v>
+        <v>26256</v>
       </c>
       <c r="E14">
-        <v>10446798</v>
+        <v>9915696</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>450932</v>
+        <v>-58048</v>
       </c>
       <c r="H14">
-        <v>1.0450932</v>
+        <v>0.9941951999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,22 +782,22 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>10528260</v>
+        <v>9996384</v>
       </c>
       <c r="D15">
-        <v>3975</v>
+        <v>2309</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10524285</v>
+        <v>9994075</v>
       </c>
       <c r="G15">
-        <v>528260</v>
+        <v>-3616</v>
       </c>
       <c r="H15">
-        <v>1.052826</v>
+        <v>0.9996384</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,74 +808,74 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>10515315</v>
+        <v>9959139</v>
       </c>
       <c r="D16">
-        <v>9399</v>
+        <v>10615</v>
       </c>
       <c r="E16">
-        <v>10505916</v>
+        <v>9948524</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>515315</v>
+        <v>-40861</v>
       </c>
       <c r="H16">
-        <v>1.0515315</v>
+        <v>0.9959139</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>10572987</v>
+        <v>10103761</v>
       </c>
       <c r="D17">
-        <v>3337</v>
+        <v>10615</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>10093146</v>
       </c>
       <c r="F17">
-        <v>10569650</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>572987</v>
+        <v>103761</v>
       </c>
       <c r="H17">
-        <v>1.0572987</v>
+        <v>1.0103761</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>10533597</v>
+        <v>9987195</v>
       </c>
       <c r="D18">
-        <v>19139</v>
+        <v>10615</v>
       </c>
       <c r="E18">
-        <v>10514458</v>
+        <v>9976580</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>533597</v>
+        <v>-12805</v>
       </c>
       <c r="H18">
-        <v>1.0533597</v>
+        <v>0.9987195</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,74 +886,74 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>10686446</v>
+        <v>9931417</v>
       </c>
       <c r="D19">
-        <v>19139</v>
+        <v>10615</v>
       </c>
       <c r="E19">
-        <v>10667307</v>
+        <v>9920802</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>686446</v>
+        <v>-68583</v>
       </c>
       <c r="H19">
-        <v>1.0686446</v>
+        <v>0.9931417</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>10563249</v>
+        <v>9857269</v>
       </c>
       <c r="D20">
-        <v>19139</v>
+        <v>3709</v>
       </c>
       <c r="E20">
-        <v>10544110</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>9853560</v>
       </c>
       <c r="G20">
-        <v>563249</v>
+        <v>-142731</v>
       </c>
       <c r="H20">
-        <v>1.0563249</v>
+        <v>0.9857269</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>10504298</v>
+        <v>9857269</v>
       </c>
       <c r="D21">
-        <v>19139</v>
+        <v>9153</v>
       </c>
       <c r="E21">
-        <v>10485159</v>
+        <v>9848116</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>504298</v>
+        <v>-142731</v>
       </c>
       <c r="H21">
-        <v>1.0504298</v>
+        <v>0.9857269</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,74 +964,74 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>10425932</v>
+        <v>9909725</v>
       </c>
       <c r="D22">
-        <v>2732</v>
+        <v>705</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>10423200</v>
+        <v>9909020</v>
       </c>
       <c r="G22">
-        <v>425932</v>
+        <v>-90275</v>
       </c>
       <c r="H22">
-        <v>1.0425932</v>
+        <v>0.9909725</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>10425932</v>
+        <v>9885045</v>
       </c>
       <c r="D23">
-        <v>14219</v>
+        <v>705</v>
       </c>
       <c r="E23">
-        <v>10411713</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>9884340</v>
       </c>
       <c r="G23">
-        <v>425932</v>
+        <v>-114955</v>
       </c>
       <c r="H23">
-        <v>1.0425932</v>
+        <v>0.9885045</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>10481390</v>
+        <v>10094825</v>
       </c>
       <c r="D24">
-        <v>14219</v>
+        <v>8224</v>
       </c>
       <c r="E24">
-        <v>10467171</v>
+        <v>10086601</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>481390</v>
+        <v>94825</v>
       </c>
       <c r="H24">
-        <v>1.048139</v>
+        <v>1.0094825</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,22 +1042,22 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>10503854</v>
+        <v>10135299</v>
       </c>
       <c r="D25">
-        <v>2744</v>
+        <v>2199</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>10501110</v>
+        <v>10133100</v>
       </c>
       <c r="G25">
-        <v>503854</v>
+        <v>135299</v>
       </c>
       <c r="H25">
-        <v>1.0503854</v>
+        <v>1.0135299</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,22 +1068,22 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>10726724</v>
+        <v>10085259</v>
       </c>
       <c r="D26">
-        <v>22576</v>
+        <v>24999</v>
       </c>
       <c r="E26">
-        <v>10704148</v>
+        <v>10060260</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>726724</v>
+        <v>85259</v>
       </c>
       <c r="H26">
-        <v>1.0726724</v>
+        <v>1.0085259</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,22 +1094,22 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>10769676</v>
+        <v>10118919</v>
       </c>
       <c r="D27">
-        <v>726</v>
+        <v>2289</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>10768950</v>
+        <v>10116630</v>
       </c>
       <c r="G27">
-        <v>769676</v>
+        <v>118919</v>
       </c>
       <c r="H27">
-        <v>1.0769676</v>
+        <v>1.0118919</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,74 +1120,74 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>10716496</v>
+        <v>10055769</v>
       </c>
       <c r="D28">
-        <v>5278</v>
+        <v>11049</v>
       </c>
       <c r="E28">
-        <v>10711218</v>
+        <v>10044720</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>716496</v>
+        <v>55769</v>
       </c>
       <c r="H28">
-        <v>1.0716496</v>
+        <v>1.0055769</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>10752334</v>
+        <v>10012761</v>
       </c>
       <c r="D29">
-        <v>2914</v>
+        <v>11049</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>10001712</v>
       </c>
       <c r="F29">
-        <v>10749420</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>752334</v>
+        <v>12761</v>
       </c>
       <c r="H29">
-        <v>1.0752334</v>
+        <v>1.0012761</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>10685234</v>
+        <v>10081977</v>
       </c>
       <c r="D30">
-        <v>12719</v>
+        <v>11049</v>
       </c>
       <c r="E30">
-        <v>10672515</v>
+        <v>10070928</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>685234</v>
+        <v>81977</v>
       </c>
       <c r="H30">
-        <v>1.0685234</v>
+        <v>1.0081977</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,126 +1198,126 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>10639538</v>
+        <v>10115241</v>
       </c>
       <c r="D31">
-        <v>12719</v>
+        <v>11049</v>
       </c>
       <c r="E31">
-        <v>10626819</v>
+        <v>10104192</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>639538</v>
+        <v>115241</v>
       </c>
       <c r="H31">
-        <v>1.0639538</v>
+        <v>1.0115241</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>10713080</v>
+        <v>10042329</v>
       </c>
       <c r="D32">
-        <v>12719</v>
+        <v>1794</v>
       </c>
       <c r="E32">
-        <v>10700361</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>10040535</v>
       </c>
       <c r="G32">
-        <v>713080</v>
+        <v>42329</v>
       </c>
       <c r="H32">
-        <v>1.071308</v>
+        <v>1.0042329</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>10748423</v>
+        <v>10017259</v>
       </c>
       <c r="D33">
-        <v>12719</v>
+        <v>19600</v>
       </c>
       <c r="E33">
-        <v>10735704</v>
+        <v>9997659</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>748423</v>
+        <v>17259</v>
       </c>
       <c r="H33">
-        <v>1.0748423</v>
+        <v>1.0017259</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>10670954</v>
+        <v>10013929</v>
       </c>
       <c r="D34">
-        <v>1634</v>
+        <v>19600</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>9994329</v>
       </c>
       <c r="F34">
-        <v>10669320</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>670954</v>
+        <v>13929</v>
       </c>
       <c r="H34">
-        <v>1.0670954</v>
+        <v>1.0013929</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>10644314</v>
+        <v>9876067</v>
       </c>
       <c r="D35">
-        <v>16172</v>
+        <v>19600</v>
       </c>
       <c r="E35">
-        <v>10628142</v>
+        <v>9856467</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>644314</v>
+        <v>-123933</v>
       </c>
       <c r="H35">
-        <v>1.0644314</v>
+        <v>0.9876066999999999</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,22 +1328,22 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>10640774</v>
+        <v>9787489</v>
       </c>
       <c r="D36">
-        <v>16172</v>
+        <v>19600</v>
       </c>
       <c r="E36">
-        <v>10624602</v>
+        <v>9767889</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>640774</v>
+        <v>-212511</v>
       </c>
       <c r="H36">
-        <v>1.0640774</v>
+        <v>0.9787489</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,22 +1354,22 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>10494218</v>
+        <v>9886057</v>
       </c>
       <c r="D37">
-        <v>16172</v>
+        <v>19600</v>
       </c>
       <c r="E37">
-        <v>10478046</v>
+        <v>9866457</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>494218</v>
+        <v>-113943</v>
       </c>
       <c r="H37">
-        <v>1.0494218</v>
+        <v>0.9886057</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,22 +1380,22 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>10400054</v>
+        <v>9789154</v>
       </c>
       <c r="D38">
-        <v>16172</v>
+        <v>19600</v>
       </c>
       <c r="E38">
-        <v>10383882</v>
+        <v>9769554</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>400054</v>
+        <v>-210846</v>
       </c>
       <c r="H38">
-        <v>1.0400054</v>
+        <v>0.9789154</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,22 +1406,22 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>10504838</v>
+        <v>9789154</v>
       </c>
       <c r="D39">
-        <v>16172</v>
+        <v>19600</v>
       </c>
       <c r="E39">
-        <v>10488666</v>
+        <v>9769554</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>504838</v>
+        <v>-210846</v>
       </c>
       <c r="H39">
-        <v>1.0504838</v>
+        <v>0.9789154</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,230 +1432,230 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>10401824</v>
+        <v>9940003</v>
       </c>
       <c r="D40">
-        <v>16172</v>
+        <v>19600</v>
       </c>
       <c r="E40">
-        <v>10385652</v>
+        <v>9920403</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>401824</v>
+        <v>-59997</v>
       </c>
       <c r="H40">
-        <v>1.0401824</v>
+        <v>0.9940002999999999</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>10401824</v>
+        <v>9932011</v>
       </c>
       <c r="D41">
-        <v>16172</v>
+        <v>2916</v>
       </c>
       <c r="E41">
-        <v>10385652</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>9929095</v>
       </c>
       <c r="G41">
-        <v>401824</v>
+        <v>-67989</v>
       </c>
       <c r="H41">
-        <v>1.0401824</v>
+        <v>0.9932010999999999</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>10562186</v>
+        <v>10080391</v>
       </c>
       <c r="D42">
-        <v>656</v>
+        <v>7167</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>10073224</v>
       </c>
       <c r="F42">
-        <v>10561530</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>562186</v>
+        <v>80391</v>
       </c>
       <c r="H42">
-        <v>1.0562186</v>
+        <v>1.0080391</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>10628361</v>
+        <v>9972346</v>
       </c>
       <c r="D43">
-        <v>1542</v>
+        <v>1486</v>
       </c>
       <c r="E43">
-        <v>10626819</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>9970860</v>
       </c>
       <c r="G43">
-        <v>628361</v>
+        <v>-27654</v>
       </c>
       <c r="H43">
-        <v>1.0628361</v>
+        <v>0.9972346</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>10485918</v>
+        <v>10032996</v>
       </c>
       <c r="D44">
-        <v>1542</v>
+        <v>9900</v>
       </c>
       <c r="E44">
-        <v>10484376</v>
+        <v>10023096</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>485918</v>
+        <v>32996</v>
       </c>
       <c r="H44">
-        <v>1.0485918</v>
+        <v>1.0032996</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>10373463</v>
+        <v>9960960</v>
       </c>
       <c r="D45">
-        <v>3933</v>
+        <v>9900</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>9951060</v>
       </c>
       <c r="F45">
-        <v>10369530</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>373463</v>
+        <v>-39040</v>
       </c>
       <c r="H45">
-        <v>1.0373463</v>
+        <v>0.996096</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>10436538</v>
+        <v>10044828</v>
       </c>
       <c r="D46">
-        <v>10214</v>
+        <v>9900</v>
       </c>
       <c r="E46">
-        <v>10426324</v>
+        <v>10034928</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>436538</v>
+        <v>44828</v>
       </c>
       <c r="H46">
-        <v>1.0436538</v>
+        <v>1.0044828</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>10361604</v>
+        <v>9929988</v>
       </c>
       <c r="D47">
-        <v>10214</v>
+        <v>3878</v>
       </c>
       <c r="E47">
-        <v>10351390</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>9926110</v>
       </c>
       <c r="G47">
-        <v>361604</v>
+        <v>-70012</v>
       </c>
       <c r="H47">
-        <v>1.0361604</v>
+        <v>0.9929988</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>10448846</v>
+        <v>10048438</v>
       </c>
       <c r="D48">
-        <v>10214</v>
+        <v>21022</v>
       </c>
       <c r="E48">
-        <v>10438632</v>
+        <v>10027416</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>448846</v>
+        <v>48438</v>
       </c>
       <c r="H48">
-        <v>1.0448846</v>
+        <v>1.0048438</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,100 +1666,100 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>10329386</v>
+        <v>9797110</v>
       </c>
       <c r="D49">
-        <v>1036</v>
+        <v>910</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>10328350</v>
+        <v>9796200</v>
       </c>
       <c r="G49">
-        <v>329386</v>
+        <v>-202890</v>
       </c>
       <c r="H49">
-        <v>1.0329386</v>
+        <v>0.979711</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>10452636</v>
+        <v>9819630</v>
       </c>
       <c r="D50">
-        <v>3900</v>
+        <v>910</v>
       </c>
       <c r="E50">
-        <v>10448736</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>9818720</v>
       </c>
       <c r="G50">
-        <v>452636</v>
+        <v>-180370</v>
       </c>
       <c r="H50">
-        <v>1.0452636</v>
+        <v>0.981963</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>10190748</v>
+        <v>10146170</v>
       </c>
       <c r="D51">
-        <v>3048</v>
+        <v>21948</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>10124222</v>
       </c>
       <c r="F51">
-        <v>10187700</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>190748</v>
+        <v>146170</v>
       </c>
       <c r="H51">
-        <v>1.0190748</v>
+        <v>1.014617</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>10214168</v>
+        <v>10332691</v>
       </c>
       <c r="D52">
-        <v>3048</v>
+        <v>1631</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>10211120</v>
+        <v>10331060</v>
       </c>
       <c r="G52">
-        <v>214168</v>
+        <v>332691</v>
       </c>
       <c r="H52">
-        <v>1.0214168</v>
+        <v>1.0332691</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,22 +1770,22 @@
         <v>9</v>
       </c>
       <c r="C53">
-        <v>10553758</v>
+        <v>10238451</v>
       </c>
       <c r="D53">
-        <v>6592</v>
+        <v>11164</v>
       </c>
       <c r="E53">
-        <v>10547166</v>
+        <v>10227287</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>553758</v>
+        <v>238451</v>
       </c>
       <c r="H53">
-        <v>1.0553758</v>
+        <v>1.0238451</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,22 +1796,22 @@
         <v>8</v>
       </c>
       <c r="C54">
-        <v>10748071</v>
+        <v>10322749</v>
       </c>
       <c r="D54">
-        <v>436</v>
+        <v>1009</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>10747635</v>
+        <v>10321740</v>
       </c>
       <c r="G54">
-        <v>748071</v>
+        <v>322749</v>
       </c>
       <c r="H54">
-        <v>1.0748071</v>
+        <v>1.0322749</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,74 +1822,74 @@
         <v>9</v>
       </c>
       <c r="C55">
-        <v>10650031</v>
+        <v>10418989</v>
       </c>
       <c r="D55">
-        <v>11459</v>
+        <v>16949</v>
       </c>
       <c r="E55">
-        <v>10638572</v>
+        <v>10402040</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>650031</v>
+        <v>418989</v>
       </c>
       <c r="H55">
-        <v>1.0650031</v>
+        <v>1.0418989</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>10737719</v>
+        <v>10393045</v>
       </c>
       <c r="D56">
-        <v>4139</v>
+        <v>16949</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>10376096</v>
       </c>
       <c r="F56">
-        <v>10733580</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>737719</v>
+        <v>393045</v>
       </c>
       <c r="H56">
-        <v>1.0737719</v>
+        <v>1.0393045</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>10837799</v>
+        <v>10483661</v>
       </c>
       <c r="D57">
-        <v>20784</v>
+        <v>16949</v>
       </c>
       <c r="E57">
-        <v>10817015</v>
+        <v>10466712</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>837799</v>
+        <v>483661</v>
       </c>
       <c r="H57">
-        <v>1.0837799</v>
+        <v>1.0483661</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,22 +1900,22 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>10810820</v>
+        <v>10505845</v>
       </c>
       <c r="D58">
-        <v>20784</v>
+        <v>16949</v>
       </c>
       <c r="E58">
-        <v>10790036</v>
+        <v>10488896</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>810820</v>
+        <v>505845</v>
       </c>
       <c r="H58">
-        <v>1.081082</v>
+        <v>1.0505845</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,74 +1926,74 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>10905051</v>
+        <v>10400189</v>
       </c>
       <c r="D59">
-        <v>20784</v>
+        <v>16949</v>
       </c>
       <c r="E59">
-        <v>10884267</v>
+        <v>10383240</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>905051</v>
+        <v>400189</v>
       </c>
       <c r="H59">
-        <v>1.0905051</v>
+        <v>1.0400189</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C60">
-        <v>10928120</v>
+        <v>10278365</v>
       </c>
       <c r="D60">
-        <v>20784</v>
+        <v>2165</v>
       </c>
       <c r="E60">
-        <v>10907336</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>10276200</v>
       </c>
       <c r="G60">
-        <v>928120</v>
+        <v>278365</v>
       </c>
       <c r="H60">
-        <v>1.092812</v>
+        <v>1.0278365</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>10818249</v>
+        <v>10337765</v>
       </c>
       <c r="D61">
-        <v>20784</v>
+        <v>18035</v>
       </c>
       <c r="E61">
-        <v>10797465</v>
+        <v>10319730</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>818249</v>
+        <v>337765</v>
       </c>
       <c r="H61">
-        <v>1.0818249</v>
+        <v>1.0337765</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,22 +2004,22 @@
         <v>8</v>
       </c>
       <c r="C62">
-        <v>10691565</v>
+        <v>10537169</v>
       </c>
       <c r="D62">
-        <v>165</v>
+        <v>3079</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>10691400</v>
+        <v>10534090</v>
       </c>
       <c r="G62">
-        <v>691565</v>
+        <v>537169</v>
       </c>
       <c r="H62">
-        <v>1.0691565</v>
+        <v>1.0537169</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,386 +2030,386 @@
         <v>9</v>
       </c>
       <c r="C63">
-        <v>10753365</v>
+        <v>10475494</v>
       </c>
       <c r="D63">
-        <v>1395</v>
+        <v>12832</v>
       </c>
       <c r="E63">
-        <v>10751970</v>
+        <v>10462662</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>753365</v>
+        <v>475494</v>
       </c>
       <c r="H63">
-        <v>1.0753365</v>
+        <v>1.0475494</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>10961121</v>
+        <v>10456972</v>
       </c>
       <c r="D64">
-        <v>31</v>
+        <v>12832</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>10444140</v>
       </c>
       <c r="F64">
-        <v>10961090</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>961121</v>
+        <v>456972</v>
       </c>
       <c r="H64">
-        <v>1.0961121</v>
+        <v>1.0456972</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>10896946</v>
+        <v>10466422</v>
       </c>
       <c r="D65">
-        <v>19099</v>
+        <v>12832</v>
       </c>
       <c r="E65">
-        <v>10877847</v>
+        <v>10453590</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>896946</v>
+        <v>466422</v>
       </c>
       <c r="H65">
-        <v>1.0896946</v>
+        <v>1.0466422</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66">
-        <v>10877689</v>
+        <v>10326940</v>
       </c>
       <c r="D66">
-        <v>19099</v>
+        <v>3165</v>
       </c>
       <c r="E66">
-        <v>10858590</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>10323775</v>
       </c>
       <c r="G66">
-        <v>877689</v>
+        <v>326940</v>
       </c>
       <c r="H66">
-        <v>1.0877689</v>
+        <v>1.032694</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>10887514</v>
+        <v>10267265</v>
       </c>
       <c r="D67">
-        <v>3214</v>
+        <v>7323</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>10259942</v>
       </c>
       <c r="F67">
-        <v>10884300</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>887514</v>
+        <v>267265</v>
       </c>
       <c r="H67">
-        <v>1.0887514</v>
+        <v>1.0267265</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68">
-        <v>11053589</v>
+        <v>10002099</v>
       </c>
       <c r="D68">
-        <v>2759</v>
+        <v>4059</v>
       </c>
       <c r="E68">
-        <v>11050830</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>9998040</v>
       </c>
       <c r="G68">
-        <v>1053589</v>
+        <v>2099</v>
       </c>
       <c r="H68">
-        <v>1.1053589</v>
+        <v>1.0002099</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>11113124</v>
+        <v>9888999</v>
       </c>
       <c r="D69">
-        <v>2759</v>
+        <v>3339</v>
       </c>
       <c r="E69">
-        <v>11110365</v>
+        <v>9885660</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>1113124</v>
+        <v>-111001</v>
       </c>
       <c r="H69">
-        <v>1.1113124</v>
+        <v>0.9888999000000001</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>10825979</v>
+        <v>9962931</v>
       </c>
       <c r="D70">
-        <v>1399</v>
+        <v>3339</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>9959592</v>
       </c>
       <c r="F70">
-        <v>10824580</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>825979</v>
+        <v>-37069</v>
       </c>
       <c r="H70">
-        <v>1.0825979</v>
+        <v>0.9962931</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>10703529</v>
+        <v>9979035</v>
       </c>
       <c r="D71">
-        <v>7569</v>
+        <v>3339</v>
       </c>
       <c r="E71">
-        <v>10695960</v>
+        <v>9975696</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>703529</v>
+        <v>-20965</v>
       </c>
       <c r="H71">
-        <v>1.0703529</v>
+        <v>0.9979035000000001</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>10783521</v>
+        <v>10143003</v>
       </c>
       <c r="D72">
-        <v>7569</v>
+        <v>1753</v>
       </c>
       <c r="E72">
-        <v>10775952</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>10141250</v>
       </c>
       <c r="G72">
-        <v>783521</v>
+        <v>143003</v>
       </c>
       <c r="H72">
-        <v>1.0783521</v>
+        <v>1.0143003</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>10800945</v>
+        <v>10309253</v>
       </c>
       <c r="D73">
-        <v>4245</v>
+        <v>23773</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>10285480</v>
       </c>
       <c r="F73">
-        <v>10796700</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>800945</v>
+        <v>309253</v>
       </c>
       <c r="H73">
-        <v>1.0800945</v>
+        <v>1.0309253</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74">
-        <v>10602385</v>
+        <v>10087037</v>
       </c>
       <c r="D74">
-        <v>19457</v>
+        <v>1332</v>
       </c>
       <c r="E74">
-        <v>10582928</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>10085705</v>
       </c>
       <c r="G74">
-        <v>602385</v>
+        <v>87037</v>
       </c>
       <c r="H74">
-        <v>1.0602385</v>
+        <v>1.0087037</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>10469067</v>
+        <v>10189142</v>
       </c>
       <c r="D75">
-        <v>19457</v>
+        <v>12052</v>
       </c>
       <c r="E75">
-        <v>10449610</v>
+        <v>10177090</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>469067</v>
+        <v>189142</v>
       </c>
       <c r="H75">
-        <v>1.0469067</v>
+        <v>1.0189142</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>10243305</v>
+        <v>10429767</v>
       </c>
       <c r="D76">
-        <v>2025</v>
+        <v>12052</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>10417715</v>
       </c>
       <c r="F76">
-        <v>10241280</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>243305</v>
+        <v>429767</v>
       </c>
       <c r="H76">
-        <v>1.0243305</v>
+        <v>1.0429767</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>10346985</v>
+        <v>10329282</v>
       </c>
       <c r="D77">
-        <v>11291</v>
+        <v>12052</v>
       </c>
       <c r="E77">
-        <v>10335694</v>
+        <v>10317230</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>346985</v>
+        <v>329282</v>
       </c>
       <c r="H77">
-        <v>1.0346985</v>
+        <v>1.0329282</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,22 +2420,22 @@
         <v>8</v>
       </c>
       <c r="C78">
-        <v>10591360</v>
+        <v>10283852</v>
       </c>
       <c r="D78">
-        <v>2680</v>
+        <v>2932</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>10588680</v>
+        <v>10280920</v>
       </c>
       <c r="G78">
-        <v>591360</v>
+        <v>283852</v>
       </c>
       <c r="H78">
-        <v>1.059136</v>
+        <v>1.0283852</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,22 +2446,22 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>10639600</v>
+        <v>10388522</v>
       </c>
       <c r="D79">
-        <v>794</v>
+        <v>14634</v>
       </c>
       <c r="E79">
-        <v>10638806</v>
+        <v>10373888</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>639600</v>
+        <v>388522</v>
       </c>
       <c r="H79">
-        <v>1.06396</v>
+        <v>1.0388522</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,22 +2472,22 @@
         <v>8</v>
       </c>
       <c r="C80">
-        <v>10592754</v>
+        <v>10510042</v>
       </c>
       <c r="D80">
-        <v>2434</v>
+        <v>1597</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>10590320</v>
+        <v>10508445</v>
       </c>
       <c r="G80">
-        <v>592754</v>
+        <v>510042</v>
       </c>
       <c r="H80">
-        <v>1.0592754</v>
+        <v>1.0510042</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,74 +2498,74 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>10700574</v>
+        <v>10354627</v>
       </c>
       <c r="D81">
-        <v>9118</v>
+        <v>22669</v>
       </c>
       <c r="E81">
-        <v>10691456</v>
+        <v>10331958</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>700574</v>
+        <v>354627</v>
       </c>
       <c r="H81">
-        <v>1.0700574</v>
+        <v>1.0354627</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C82">
-        <v>10825814</v>
+        <v>10433494</v>
       </c>
       <c r="D82">
-        <v>929</v>
+        <v>22669</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>10410825</v>
       </c>
       <c r="F82">
-        <v>10824885</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>825814</v>
+        <v>433494</v>
       </c>
       <c r="H82">
-        <v>1.0825814</v>
+        <v>1.0433494</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>10665719</v>
+        <v>10330243</v>
       </c>
       <c r="D83">
-        <v>8345</v>
+        <v>22669</v>
       </c>
       <c r="E83">
-        <v>10657374</v>
+        <v>10307574</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>665719</v>
+        <v>330243</v>
       </c>
       <c r="H83">
-        <v>1.0665719</v>
+        <v>1.0330243</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,22 +2576,22 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>10747070</v>
+        <v>10443019</v>
       </c>
       <c r="D84">
-        <v>8345</v>
+        <v>22669</v>
       </c>
       <c r="E84">
-        <v>10738725</v>
+        <v>10420350</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>747070</v>
+        <v>443019</v>
       </c>
       <c r="H84">
-        <v>1.074707</v>
+        <v>1.0443019</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,22 +2602,22 @@
         <v>8</v>
       </c>
       <c r="C85">
-        <v>10640567</v>
+        <v>10514266</v>
       </c>
       <c r="D85">
-        <v>3062</v>
+        <v>3161</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>10637505</v>
+        <v>10511105</v>
       </c>
       <c r="G85">
-        <v>640567</v>
+        <v>514266</v>
       </c>
       <c r="H85">
-        <v>1.0640567</v>
+        <v>1.0514266</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,22 +2628,22 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>10530902</v>
+        <v>10563326</v>
       </c>
       <c r="D86">
-        <v>1152</v>
+        <v>14740</v>
       </c>
       <c r="E86">
-        <v>10529750</v>
+        <v>10548586</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>530902</v>
+        <v>563326</v>
       </c>
       <c r="H86">
-        <v>1.0530902</v>
+        <v>1.0563326</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,22 +2654,22 @@
         <v>8</v>
       </c>
       <c r="C87">
-        <v>10602897</v>
+        <v>10557581</v>
       </c>
       <c r="D87">
-        <v>1807</v>
+        <v>3821</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>10601090</v>
+        <v>10553760</v>
       </c>
       <c r="G87">
-        <v>602897</v>
+        <v>557581</v>
       </c>
       <c r="H87">
-        <v>1.0602897</v>
+        <v>1.0557581</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,22 +2680,22 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>10652377</v>
+        <v>10557581</v>
       </c>
       <c r="D88">
-        <v>21165</v>
+        <v>7949</v>
       </c>
       <c r="E88">
-        <v>10631212</v>
+        <v>10549632</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>652377</v>
+        <v>557581</v>
       </c>
       <c r="H88">
-        <v>1.0652377</v>
+        <v>1.0557581</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,22 +2706,22 @@
         <v>8</v>
       </c>
       <c r="C89">
-        <v>10646587</v>
+        <v>10597133</v>
       </c>
       <c r="D89">
-        <v>2107</v>
+        <v>1933</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>10644480</v>
+        <v>10595200</v>
       </c>
       <c r="G89">
-        <v>646587</v>
+        <v>597133</v>
       </c>
       <c r="H89">
-        <v>1.0646587</v>
+        <v>1.0597133</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,22 +2732,22 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>10646587</v>
+        <v>10547853</v>
       </c>
       <c r="D90">
-        <v>14536</v>
+        <v>24133</v>
       </c>
       <c r="E90">
-        <v>10632051</v>
+        <v>10523720</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>646587</v>
+        <v>547853</v>
       </c>
       <c r="H90">
-        <v>1.0646587</v>
+        <v>1.0547853</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,22 +2758,22 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>10686448</v>
+        <v>10589273</v>
       </c>
       <c r="D91">
-        <v>948</v>
+        <v>3543</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>10685500</v>
+        <v>10585730</v>
       </c>
       <c r="G91">
-        <v>686448</v>
+        <v>589273</v>
       </c>
       <c r="H91">
-        <v>1.0686448</v>
+        <v>1.0589273</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,22 +2784,22 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>10636748</v>
+        <v>10676143</v>
       </c>
       <c r="D92">
-        <v>2252</v>
+        <v>12893</v>
       </c>
       <c r="E92">
-        <v>10634496</v>
+        <v>10663250</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>636748</v>
+        <v>676143</v>
       </c>
       <c r="H92">
-        <v>1.0636748</v>
+        <v>1.0676143</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,22 +2810,22 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>10678604</v>
+        <v>10759905</v>
       </c>
       <c r="D93">
-        <v>3309</v>
+        <v>4005</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>10675295</v>
+        <v>10755900</v>
       </c>
       <c r="G93">
-        <v>678604</v>
+        <v>759905</v>
       </c>
       <c r="H93">
-        <v>1.0678604</v>
+        <v>1.0759905</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,22 +2836,22 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>10766209</v>
+        <v>10772485</v>
       </c>
       <c r="D94">
-        <v>20084</v>
+        <v>7306</v>
       </c>
       <c r="E94">
-        <v>10746125</v>
+        <v>10765179</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>766209</v>
+        <v>772485</v>
       </c>
       <c r="H94">
-        <v>1.0766209</v>
+        <v>1.0772485</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,22 +2862,22 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>10850622</v>
+        <v>10679218</v>
       </c>
       <c r="D95">
-        <v>672</v>
+        <v>793</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>10849950</v>
+        <v>10678425</v>
       </c>
       <c r="G95">
-        <v>850622</v>
+        <v>679218</v>
       </c>
       <c r="H95">
-        <v>1.0850622</v>
+        <v>1.0679218</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,22 +2888,22 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>10863312</v>
+        <v>10827358</v>
       </c>
       <c r="D96">
-        <v>14682</v>
+        <v>16651</v>
       </c>
       <c r="E96">
-        <v>10848630</v>
+        <v>10810707</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>863312</v>
+        <v>827358</v>
       </c>
       <c r="H96">
-        <v>1.0863312</v>
+        <v>1.0827358</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,22 +2914,22 @@
         <v>8</v>
       </c>
       <c r="C97">
-        <v>10769322</v>
+        <v>10831328</v>
       </c>
       <c r="D97">
-        <v>72</v>
+        <v>378</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>10769250</v>
+        <v>10830950</v>
       </c>
       <c r="G97">
-        <v>769322</v>
+        <v>831328</v>
       </c>
       <c r="H97">
-        <v>1.0769322</v>
+        <v>1.0831328</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,126 +2940,126 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>10918722</v>
+        <v>10831328</v>
       </c>
       <c r="D98">
-        <v>26322</v>
+        <v>10902</v>
       </c>
       <c r="E98">
-        <v>10892400</v>
+        <v>10820426</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>918722</v>
+        <v>831328</v>
       </c>
       <c r="H98">
-        <v>1.0918722</v>
+        <v>1.0831328</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>10922722</v>
+        <v>10733420</v>
       </c>
       <c r="D99">
-        <v>4072</v>
+        <v>10902</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>10722518</v>
       </c>
       <c r="F99">
-        <v>10918650</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>922722</v>
+        <v>733420</v>
       </c>
       <c r="H99">
-        <v>1.0922722</v>
+        <v>1.073342</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100">
-        <v>10922722</v>
+        <v>10909734</v>
       </c>
       <c r="D100">
-        <v>20735</v>
+        <v>10902</v>
       </c>
       <c r="E100">
-        <v>10901987</v>
+        <v>10898832</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>922722</v>
+        <v>909734</v>
       </c>
       <c r="H100">
-        <v>1.0922722</v>
+        <v>1.0909734</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>10824076</v>
+        <v>10913714</v>
       </c>
       <c r="D101">
-        <v>526</v>
+        <v>10902</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>10902812</v>
       </c>
       <c r="F101">
-        <v>10823550</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>824076</v>
+        <v>913714</v>
       </c>
       <c r="H101">
-        <v>1.0824076</v>
+        <v>1.0913714</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C102">
-        <v>10616166</v>
+        <v>10837298</v>
       </c>
       <c r="D102">
-        <v>18558</v>
+        <v>10902</v>
       </c>
       <c r="E102">
-        <v>10597608</v>
+        <v>10826396</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>616166</v>
+        <v>837298</v>
       </c>
       <c r="H102">
-        <v>1.0616166</v>
+        <v>1.0837298</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,308 +3070,308 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>10620036</v>
+        <v>10817796</v>
       </c>
       <c r="D103">
-        <v>4356</v>
+        <v>1046</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>10615680</v>
+        <v>10816750</v>
       </c>
       <c r="G103">
-        <v>620036</v>
+        <v>817796</v>
       </c>
       <c r="H103">
-        <v>1.0620036</v>
+        <v>1.0817796</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C104">
-        <v>10753796</v>
+        <v>10695296</v>
       </c>
       <c r="D104">
-        <v>9006</v>
+        <v>1046</v>
       </c>
       <c r="E104">
-        <v>10744790</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>10694250</v>
       </c>
       <c r="G104">
-        <v>753796</v>
+        <v>695296</v>
       </c>
       <c r="H104">
-        <v>1.0753796</v>
+        <v>1.0695296</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105">
-        <v>10734441</v>
+        <v>10707546</v>
       </c>
       <c r="D105">
-        <v>1576</v>
+        <v>16086</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>10691460</v>
       </c>
       <c r="F105">
-        <v>10732865</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>734441</v>
+        <v>707546</v>
       </c>
       <c r="H105">
-        <v>1.0734441</v>
+        <v>1.0707546</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106">
-        <v>10612891</v>
+        <v>10747716</v>
       </c>
       <c r="D106">
-        <v>1738</v>
+        <v>3216</v>
       </c>
       <c r="E106">
-        <v>10611153</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>10744500</v>
       </c>
       <c r="G106">
-        <v>612891</v>
+        <v>747716</v>
       </c>
       <c r="H106">
-        <v>1.0612891</v>
+        <v>1.0747716</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C107">
-        <v>10610956</v>
+        <v>10871216</v>
       </c>
       <c r="D107">
-        <v>1738</v>
+        <v>1836</v>
       </c>
       <c r="E107">
-        <v>10609218</v>
+        <v>10869380</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>610956</v>
+        <v>871216</v>
       </c>
       <c r="H107">
-        <v>1.0610956</v>
+        <v>1.0871216</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C108">
-        <v>10650817</v>
+        <v>10675400</v>
       </c>
       <c r="D108">
-        <v>2017</v>
+        <v>1836</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>10673564</v>
       </c>
       <c r="F108">
-        <v>10648800</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>650817</v>
+        <v>675400</v>
       </c>
       <c r="H108">
-        <v>1.0650817</v>
+        <v>1.06754</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109">
-        <v>10773217</v>
+        <v>10714404</v>
       </c>
       <c r="D109">
-        <v>13077</v>
+        <v>129</v>
       </c>
       <c r="E109">
-        <v>10760140</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>10714275</v>
       </c>
       <c r="G109">
-        <v>773217</v>
+        <v>714404</v>
       </c>
       <c r="H109">
-        <v>1.0773217</v>
+        <v>1.0714404</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C110">
-        <v>10579369</v>
+        <v>10846679</v>
       </c>
       <c r="D110">
-        <v>13077</v>
+        <v>10539</v>
       </c>
       <c r="E110">
-        <v>10566292</v>
+        <v>10836140</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>579369</v>
+        <v>846679</v>
       </c>
       <c r="H110">
-        <v>1.0579369</v>
+        <v>1.0846679</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C111">
-        <v>10617981</v>
+        <v>10956299</v>
       </c>
       <c r="D111">
-        <v>1716</v>
+        <v>10539</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>10945760</v>
       </c>
       <c r="F111">
-        <v>10616265</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>617981</v>
+        <v>956299</v>
       </c>
       <c r="H111">
-        <v>1.0617981</v>
+        <v>1.0956299</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112">
-        <v>10749046</v>
+        <v>11051709</v>
       </c>
       <c r="D112">
-        <v>19666</v>
+        <v>10539</v>
       </c>
       <c r="E112">
-        <v>10729380</v>
+        <v>11041170</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>749046</v>
+        <v>1051709</v>
       </c>
       <c r="H112">
-        <v>1.0749046</v>
+        <v>1.1051709</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C113">
-        <v>10857586</v>
+        <v>11037499</v>
       </c>
       <c r="D113">
-        <v>19666</v>
+        <v>3679</v>
       </c>
       <c r="E113">
-        <v>10837920</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>11033820</v>
       </c>
       <c r="G113">
-        <v>857586</v>
+        <v>1037499</v>
       </c>
       <c r="H113">
-        <v>1.0857586</v>
+        <v>1.1037499</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C114">
-        <v>10952056</v>
+        <v>11062519</v>
       </c>
       <c r="D114">
-        <v>19666</v>
+        <v>3679</v>
       </c>
       <c r="E114">
-        <v>10932390</v>
+        <v>11058840</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>952056</v>
+        <v>1062519</v>
       </c>
       <c r="H114">
-        <v>1.0952056</v>
+        <v>1.1062519</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,308 +3382,308 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>10937986</v>
+        <v>11025799</v>
       </c>
       <c r="D115">
-        <v>19666</v>
+        <v>3679</v>
       </c>
       <c r="E115">
-        <v>10918320</v>
+        <v>11022120</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115">
-        <v>937986</v>
+        <v>1025799</v>
       </c>
       <c r="H115">
-        <v>1.0937986</v>
+        <v>1.1025799</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C116">
-        <v>10915876</v>
+        <v>10915639</v>
       </c>
       <c r="D116">
-        <v>2896</v>
+        <v>3679</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>10911960</v>
       </c>
       <c r="F116">
-        <v>10912980</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>915876</v>
+        <v>915639</v>
       </c>
       <c r="H116">
-        <v>1.0915876</v>
+        <v>1.0915639</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>10903531</v>
+        <v>10752439</v>
       </c>
       <c r="D117">
-        <v>16486</v>
+        <v>3679</v>
       </c>
       <c r="E117">
-        <v>10887045</v>
+        <v>10748760</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>903531</v>
+        <v>752439</v>
       </c>
       <c r="H117">
-        <v>1.0903531</v>
+        <v>1.0752439</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C118">
-        <v>10794721</v>
+        <v>10715719</v>
       </c>
       <c r="D118">
-        <v>1021</v>
+        <v>3679</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>10712040</v>
       </c>
       <c r="F118">
-        <v>10793700</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>794721</v>
+        <v>715719</v>
       </c>
       <c r="H118">
-        <v>1.0794721</v>
+        <v>1.0715719</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C119">
-        <v>10891201</v>
+        <v>10699399</v>
       </c>
       <c r="D119">
-        <v>10716</v>
+        <v>3679</v>
       </c>
       <c r="E119">
-        <v>10880485</v>
+        <v>10695720</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>891201</v>
+        <v>699399</v>
       </c>
       <c r="H119">
-        <v>1.0891201</v>
+        <v>1.0699399</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>10854031</v>
+        <v>10530079</v>
       </c>
       <c r="D120">
-        <v>10716</v>
+        <v>3264</v>
       </c>
       <c r="E120">
-        <v>10843315</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>10526815</v>
       </c>
       <c r="G120">
-        <v>854031</v>
+        <v>530079</v>
       </c>
       <c r="H120">
-        <v>1.0854031</v>
+        <v>1.0530079</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>10837511</v>
+        <v>10279169</v>
       </c>
       <c r="D121">
-        <v>2231</v>
+        <v>3689</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>10275480</v>
       </c>
       <c r="F121">
-        <v>10835280</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>837511</v>
+        <v>279169</v>
       </c>
       <c r="H121">
-        <v>1.0837511</v>
+        <v>1.0279169</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122">
-        <v>11004391</v>
+        <v>10273304</v>
       </c>
       <c r="D122">
-        <v>13591</v>
+        <v>1554</v>
       </c>
       <c r="E122">
-        <v>10990800</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>10271750</v>
       </c>
       <c r="G122">
-        <v>1004391</v>
+        <v>273304</v>
       </c>
       <c r="H122">
-        <v>1.1004391</v>
+        <v>1.0273304</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123">
-        <v>11208871</v>
+        <v>10171154</v>
       </c>
       <c r="D123">
-        <v>431</v>
+        <v>914</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>10170240</v>
       </c>
       <c r="F123">
-        <v>11208440</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>1208871</v>
+        <v>171154</v>
       </c>
       <c r="H123">
-        <v>1.1208871</v>
+        <v>1.0171154</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C124">
-        <v>11258631</v>
+        <v>10199954</v>
       </c>
       <c r="D124">
-        <v>17211</v>
+        <v>914</v>
       </c>
       <c r="E124">
-        <v>11241420</v>
+        <v>10199040</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>1258631</v>
+        <v>199954</v>
       </c>
       <c r="H124">
-        <v>1.1258631</v>
+        <v>1.0199954</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C125">
-        <v>11352791</v>
+        <v>10071314</v>
       </c>
       <c r="D125">
-        <v>471</v>
+        <v>914</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>10070400</v>
       </c>
       <c r="F125">
-        <v>11352320</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>1352791</v>
+        <v>71314</v>
       </c>
       <c r="H125">
-        <v>1.1352791</v>
+        <v>1.0071314</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C126">
-        <v>11327451</v>
+        <v>10246034</v>
       </c>
       <c r="D126">
-        <v>12891</v>
+        <v>914</v>
       </c>
       <c r="E126">
-        <v>11314560</v>
+        <v>10245120</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
       <c r="G126">
-        <v>1327451</v>
+        <v>246034</v>
       </c>
       <c r="H126">
-        <v>1.1327451</v>
+        <v>1.0246034</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,178 +3694,178 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>11184741</v>
+        <v>10282514</v>
       </c>
       <c r="D127">
-        <v>12891</v>
+        <v>914</v>
       </c>
       <c r="E127">
-        <v>11171850</v>
+        <v>10281600</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>1184741</v>
+        <v>282514</v>
       </c>
       <c r="H127">
-        <v>1.1184741</v>
+        <v>1.0282514</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C128">
-        <v>11378571</v>
+        <v>10125074</v>
       </c>
       <c r="D128">
-        <v>4371</v>
+        <v>914</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>10124160</v>
       </c>
       <c r="F128">
-        <v>11374200</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>1378571</v>
+        <v>125074</v>
       </c>
       <c r="H128">
-        <v>1.1378571</v>
+        <v>1.0125074</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C129">
-        <v>11353011</v>
+        <v>10157714</v>
       </c>
       <c r="D129">
-        <v>411</v>
+        <v>3444</v>
       </c>
       <c r="E129">
-        <v>11352600</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>10154270</v>
       </c>
       <c r="G129">
-        <v>1353011</v>
+        <v>157714</v>
       </c>
       <c r="H129">
-        <v>1.1353011</v>
+        <v>1.0157714</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130">
-        <v>11179171</v>
+        <v>10191524</v>
       </c>
       <c r="D130">
-        <v>1211</v>
+        <v>16564</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>10174960</v>
       </c>
       <c r="F130">
-        <v>11177960</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>1179171</v>
+        <v>191524</v>
       </c>
       <c r="H130">
-        <v>1.1179171</v>
+        <v>1.0191524</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C131">
-        <v>11142076</v>
+        <v>10313114</v>
       </c>
       <c r="D131">
-        <v>6626</v>
+        <v>16564</v>
       </c>
       <c r="E131">
-        <v>11135450</v>
+        <v>10296550</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>1142076</v>
+        <v>313114</v>
       </c>
       <c r="H131">
-        <v>1.1142076</v>
+        <v>1.0313114</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C132">
-        <v>11104186</v>
+        <v>10413474</v>
       </c>
       <c r="D132">
-        <v>3066</v>
+        <v>16564</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>10396910</v>
       </c>
       <c r="F132">
-        <v>11101120</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>1104186</v>
+        <v>413474</v>
       </c>
       <c r="H132">
-        <v>1.1104186</v>
+        <v>1.0413474</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C133">
-        <v>10981386</v>
+        <v>10477164</v>
       </c>
       <c r="D133">
-        <v>17961</v>
+        <v>16564</v>
       </c>
       <c r="E133">
-        <v>10963425</v>
+        <v>10460600</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133">
-        <v>981386</v>
+        <v>477164</v>
       </c>
       <c r="H133">
-        <v>1.0981386</v>
+        <v>1.0477164</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,100 +3876,126 @@
         <v>8</v>
       </c>
       <c r="C134">
-        <v>11088246</v>
+        <v>10398034</v>
       </c>
       <c r="D134">
-        <v>1506</v>
+        <v>1179</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>11086740</v>
+        <v>10396855</v>
       </c>
       <c r="G134">
-        <v>1088246</v>
+        <v>398034</v>
       </c>
       <c r="H134">
-        <v>1.1088246</v>
+        <v>1.0398034</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C135">
-        <v>11050536</v>
+        <v>10339559</v>
       </c>
       <c r="D135">
-        <v>20836</v>
+        <v>1179</v>
       </c>
       <c r="E135">
-        <v>11029700</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>10338380</v>
       </c>
       <c r="G135">
-        <v>1050536</v>
+        <v>339559</v>
       </c>
       <c r="H135">
-        <v>1.1050536</v>
+        <v>1.0339559</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136">
-        <v>10967101</v>
+        <v>10526679</v>
       </c>
       <c r="D136">
-        <v>1286</v>
+        <v>24759</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>10501920</v>
       </c>
       <c r="F136">
-        <v>10965815</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>967101</v>
+        <v>526679</v>
       </c>
       <c r="H136">
-        <v>1.0967101</v>
+        <v>1.0526679</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C137">
-        <v>10905426</v>
+        <v>10538559</v>
       </c>
       <c r="D137">
-        <v>13586</v>
+        <v>529</v>
       </c>
       <c r="E137">
-        <v>10891840</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>10538030</v>
       </c>
       <c r="G137">
-        <v>905426</v>
+        <v>538559</v>
       </c>
       <c r="H137">
-        <v>1.0905426</v>
+        <v>1.0538559</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>10550294</v>
+      </c>
+      <c r="D138">
+        <v>5974</v>
+      </c>
+      <c r="E138">
+        <v>10544320</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>550294</v>
+      </c>
+      <c r="H138">
+        <v>1.0550294</v>
       </c>
     </row>
   </sheetData>

--- a/result_pred.xlsx
+++ b/result_pred.xlsx
@@ -958,22 +958,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>9909725</v>
       </c>
       <c r="D22">
-        <v>705</v>
+        <v>9153</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>9900572</v>
       </c>
       <c r="F22">
-        <v>9909020</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>-90275</v>
@@ -984,28 +984,28 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>9885045</v>
+        <v>9930973</v>
       </c>
       <c r="D23">
-        <v>705</v>
+        <v>2578</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>9884340</v>
+        <v>9928395</v>
       </c>
       <c r="G23">
-        <v>-114955</v>
+        <v>-69027</v>
       </c>
       <c r="H23">
-        <v>0.9885045</v>
+        <v>0.9930973</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,22 +1016,22 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>10094825</v>
+        <v>10141688</v>
       </c>
       <c r="D24">
-        <v>8224</v>
+        <v>25680</v>
       </c>
       <c r="E24">
-        <v>10086601</v>
+        <v>10116008</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>94825</v>
+        <v>141688</v>
       </c>
       <c r="H24">
-        <v>1.0094825</v>
+        <v>1.0141688</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,22 +1042,22 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>10135299</v>
+        <v>10182280</v>
       </c>
       <c r="D25">
-        <v>2199</v>
+        <v>580</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>10133100</v>
+        <v>10181700</v>
       </c>
       <c r="G25">
-        <v>135299</v>
+        <v>182280</v>
       </c>
       <c r="H25">
-        <v>1.0135299</v>
+        <v>1.018228</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,22 +1068,22 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>10085259</v>
+        <v>10132000</v>
       </c>
       <c r="D26">
-        <v>24999</v>
+        <v>12562</v>
       </c>
       <c r="E26">
-        <v>10060260</v>
+        <v>10119438</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>85259</v>
+        <v>132000</v>
       </c>
       <c r="H26">
-        <v>1.0085259</v>
+        <v>1.0132</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,22 +1094,22 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>10118919</v>
+        <v>10165858</v>
       </c>
       <c r="D27">
-        <v>2289</v>
+        <v>1168</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>10116630</v>
+        <v>10164690</v>
       </c>
       <c r="G27">
-        <v>118919</v>
+        <v>165858</v>
       </c>
       <c r="H27">
-        <v>1.0118919</v>
+        <v>1.0165858</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,74 +1120,74 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>10055769</v>
+        <v>10102408</v>
       </c>
       <c r="D28">
-        <v>11049</v>
+        <v>27793</v>
       </c>
       <c r="E28">
-        <v>10044720</v>
+        <v>10074615</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>55769</v>
+        <v>102408</v>
       </c>
       <c r="H28">
-        <v>1.0055769</v>
+        <v>1.0102408</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>10012761</v>
+        <v>10059272</v>
       </c>
       <c r="D29">
-        <v>11049</v>
+        <v>3272</v>
       </c>
       <c r="E29">
-        <v>10001712</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>10056000</v>
       </c>
       <c r="G29">
-        <v>12761</v>
+        <v>59272</v>
       </c>
       <c r="H29">
-        <v>1.0012761</v>
+        <v>1.0059272</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>10081977</v>
+        <v>10008992</v>
       </c>
       <c r="D30">
-        <v>11049</v>
+        <v>27983</v>
       </c>
       <c r="E30">
-        <v>10070928</v>
+        <v>9981009</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>81977</v>
+        <v>8992</v>
       </c>
       <c r="H30">
-        <v>1.0081977</v>
+        <v>1.0008992</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,22 +1198,22 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>10115241</v>
+        <v>10041959</v>
       </c>
       <c r="D31">
-        <v>11049</v>
+        <v>27983</v>
       </c>
       <c r="E31">
-        <v>10104192</v>
+        <v>10013976</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>115241</v>
+        <v>41959</v>
       </c>
       <c r="H31">
-        <v>1.0115241</v>
+        <v>1.0041959</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,22 +1224,22 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <v>10042329</v>
+        <v>9969698</v>
       </c>
       <c r="D32">
-        <v>1794</v>
+        <v>1253</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>10040535</v>
+        <v>9968445</v>
       </c>
       <c r="G32">
-        <v>42329</v>
+        <v>-30302</v>
       </c>
       <c r="H32">
-        <v>1.0042329</v>
+        <v>0.9969698</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,22 +1250,22 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>10017259</v>
+        <v>9944808</v>
       </c>
       <c r="D33">
-        <v>19600</v>
+        <v>7195</v>
       </c>
       <c r="E33">
-        <v>9997659</v>
+        <v>9937613</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>17259</v>
+        <v>-55192</v>
       </c>
       <c r="H33">
-        <v>1.0017259</v>
+        <v>0.9944808000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,22 +1276,22 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>10013929</v>
+        <v>9941498</v>
       </c>
       <c r="D34">
-        <v>19600</v>
+        <v>7195</v>
       </c>
       <c r="E34">
-        <v>9994329</v>
+        <v>9934303</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>13929</v>
+        <v>-58502</v>
       </c>
       <c r="H34">
-        <v>1.0013929</v>
+        <v>0.9941498</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,74 +1302,74 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>9876067</v>
+        <v>9804464</v>
       </c>
       <c r="D35">
-        <v>19600</v>
+        <v>7195</v>
       </c>
       <c r="E35">
-        <v>9856467</v>
+        <v>9797269</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>-123933</v>
+        <v>-195536</v>
       </c>
       <c r="H35">
-        <v>0.9876066999999999</v>
+        <v>0.9804464000000001</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>9787489</v>
+        <v>9716418</v>
       </c>
       <c r="D36">
-        <v>19600</v>
+        <v>2668</v>
       </c>
       <c r="E36">
-        <v>9767889</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>9713750</v>
       </c>
       <c r="G36">
-        <v>-212511</v>
+        <v>-283582</v>
       </c>
       <c r="H36">
-        <v>0.9787489</v>
+        <v>0.9716418</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>9886057</v>
+        <v>9597668</v>
       </c>
       <c r="D37">
-        <v>19600</v>
+        <v>27501</v>
       </c>
       <c r="E37">
-        <v>9866457</v>
+        <v>9570167</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>-113943</v>
+        <v>-402332</v>
       </c>
       <c r="H37">
-        <v>0.9886057</v>
+        <v>0.9597668</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,22 +1380,22 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>9789154</v>
+        <v>9503675</v>
       </c>
       <c r="D38">
-        <v>19600</v>
+        <v>27501</v>
       </c>
       <c r="E38">
-        <v>9769554</v>
+        <v>9476174</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>-210846</v>
+        <v>-496325</v>
       </c>
       <c r="H38">
-        <v>0.9789154</v>
+        <v>0.9503675</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,22 +1406,22 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>9789154</v>
+        <v>9503675</v>
       </c>
       <c r="D39">
-        <v>19600</v>
+        <v>27501</v>
       </c>
       <c r="E39">
-        <v>9769554</v>
+        <v>9476174</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>-210846</v>
+        <v>-496325</v>
       </c>
       <c r="H39">
-        <v>0.9789154</v>
+        <v>0.9503675</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,22 +1432,22 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>9940003</v>
+        <v>9649994</v>
       </c>
       <c r="D40">
-        <v>19600</v>
+        <v>27501</v>
       </c>
       <c r="E40">
-        <v>9920403</v>
+        <v>9622493</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>-59997</v>
+        <v>-350006</v>
       </c>
       <c r="H40">
-        <v>0.9940002999999999</v>
+        <v>0.9649994</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,22 +1458,22 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <v>9932011</v>
+        <v>9642242</v>
       </c>
       <c r="D41">
-        <v>2916</v>
+        <v>2227</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>9929095</v>
+        <v>9640015</v>
       </c>
       <c r="G41">
-        <v>-67989</v>
+        <v>-357758</v>
       </c>
       <c r="H41">
-        <v>0.9932010999999999</v>
+        <v>0.9642242</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,22 +1484,22 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>10080391</v>
+        <v>9786302</v>
       </c>
       <c r="D42">
-        <v>7167</v>
+        <v>6758</v>
       </c>
       <c r="E42">
-        <v>10073224</v>
+        <v>9779544</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>80391</v>
+        <v>-213698</v>
       </c>
       <c r="H42">
-        <v>1.0080391</v>
+        <v>0.9786302</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,22 +1510,22 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>9972346</v>
+        <v>9681407</v>
       </c>
       <c r="D43">
-        <v>1486</v>
+        <v>2357</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>9970860</v>
+        <v>9679050</v>
       </c>
       <c r="G43">
-        <v>-27654</v>
+        <v>-318593</v>
       </c>
       <c r="H43">
-        <v>0.9972346</v>
+        <v>0.9681407</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,22 +1536,22 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>10032996</v>
+        <v>9740282</v>
       </c>
       <c r="D44">
-        <v>9900</v>
+        <v>5206</v>
       </c>
       <c r="E44">
-        <v>10023096</v>
+        <v>9735076</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>32996</v>
+        <v>-259718</v>
       </c>
       <c r="H44">
-        <v>1.0032996</v>
+        <v>0.9740282</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,22 +1562,22 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>9960960</v>
+        <v>9670316</v>
       </c>
       <c r="D45">
-        <v>9900</v>
+        <v>5206</v>
       </c>
       <c r="E45">
-        <v>9951060</v>
+        <v>9665110</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>-39040</v>
+        <v>-329684</v>
       </c>
       <c r="H45">
-        <v>0.996096</v>
+        <v>0.9670316</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,22 +1588,22 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>10044828</v>
+        <v>9751774</v>
       </c>
       <c r="D46">
-        <v>9900</v>
+        <v>5206</v>
       </c>
       <c r="E46">
-        <v>10034928</v>
+        <v>9746568</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>44828</v>
+        <v>-248226</v>
       </c>
       <c r="H46">
-        <v>1.0044828</v>
+        <v>0.9751774</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,22 +1614,22 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <v>9929988</v>
+        <v>9640234</v>
       </c>
       <c r="D47">
-        <v>3878</v>
+        <v>3234</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>9926110</v>
+        <v>9637000</v>
       </c>
       <c r="G47">
-        <v>-70012</v>
+        <v>-359766</v>
       </c>
       <c r="H47">
-        <v>0.9929988</v>
+        <v>0.9640234</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,22 +1640,22 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>10048438</v>
+        <v>9755234</v>
       </c>
       <c r="D48">
-        <v>21022</v>
+        <v>8698</v>
       </c>
       <c r="E48">
-        <v>10027416</v>
+        <v>9746536</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>48438</v>
+        <v>-244766</v>
       </c>
       <c r="H48">
-        <v>1.0048438</v>
+        <v>0.9755234</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,22 +1666,22 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>9797110</v>
+        <v>9510946</v>
       </c>
       <c r="D49">
-        <v>910</v>
+        <v>1846</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>9796200</v>
+        <v>9509100</v>
       </c>
       <c r="G49">
-        <v>-202890</v>
+        <v>-489054</v>
       </c>
       <c r="H49">
-        <v>0.979711</v>
+        <v>0.9510946</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,22 +1692,22 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>9819630</v>
+        <v>9532806</v>
       </c>
       <c r="D50">
-        <v>910</v>
+        <v>1846</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>9818720</v>
+        <v>9530960</v>
       </c>
       <c r="G50">
-        <v>-180370</v>
+        <v>-467194</v>
       </c>
       <c r="H50">
-        <v>0.981963</v>
+        <v>0.9532806</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,22 +1718,22 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>10146170</v>
+        <v>9849776</v>
       </c>
       <c r="D51">
-        <v>21948</v>
+        <v>16328</v>
       </c>
       <c r="E51">
-        <v>10124222</v>
+        <v>9833448</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>146170</v>
+        <v>-150224</v>
       </c>
       <c r="H51">
-        <v>1.014617</v>
+        <v>0.9849776</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,22 +1744,22 @@
         <v>8</v>
       </c>
       <c r="C52">
-        <v>10332691</v>
+        <v>10030940</v>
       </c>
       <c r="D52">
-        <v>1631</v>
+        <v>2445</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>10331060</v>
+        <v>10028495</v>
       </c>
       <c r="G52">
-        <v>332691</v>
+        <v>30940</v>
       </c>
       <c r="H52">
-        <v>1.0332691</v>
+        <v>1.003094</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,22 +1770,22 @@
         <v>9</v>
       </c>
       <c r="C53">
-        <v>10238451</v>
+        <v>9939460</v>
       </c>
       <c r="D53">
-        <v>11164</v>
+        <v>13782</v>
       </c>
       <c r="E53">
-        <v>10227287</v>
+        <v>9925678</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>238451</v>
+        <v>-60540</v>
       </c>
       <c r="H53">
-        <v>1.0238451</v>
+        <v>0.993946</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,22 +1796,22 @@
         <v>8</v>
       </c>
       <c r="C54">
-        <v>10322749</v>
+        <v>10021272</v>
       </c>
       <c r="D54">
-        <v>1009</v>
+        <v>4122</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>10321740</v>
+        <v>10017150</v>
       </c>
       <c r="G54">
-        <v>322749</v>
+        <v>21272</v>
       </c>
       <c r="H54">
-        <v>1.0322749</v>
+        <v>1.0021272</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,22 +1822,22 @@
         <v>9</v>
       </c>
       <c r="C55">
-        <v>10418989</v>
+        <v>10114672</v>
       </c>
       <c r="D55">
-        <v>16949</v>
+        <v>16947</v>
       </c>
       <c r="E55">
-        <v>10402040</v>
+        <v>10097725</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>418989</v>
+        <v>114672</v>
       </c>
       <c r="H55">
-        <v>1.0418989</v>
+        <v>1.0114672</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,22 +1848,22 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>10393045</v>
+        <v>10089487</v>
       </c>
       <c r="D56">
-        <v>16949</v>
+        <v>16947</v>
       </c>
       <c r="E56">
-        <v>10376096</v>
+        <v>10072540</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>393045</v>
+        <v>89487</v>
       </c>
       <c r="H56">
-        <v>1.0393045</v>
+        <v>1.0089487</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,22 +1874,22 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>10483661</v>
+        <v>10177452</v>
       </c>
       <c r="D57">
-        <v>16949</v>
+        <v>16947</v>
       </c>
       <c r="E57">
-        <v>10466712</v>
+        <v>10160505</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>483661</v>
+        <v>177452</v>
       </c>
       <c r="H57">
-        <v>1.0483661</v>
+        <v>1.0177452</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,22 +1900,22 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>10505845</v>
+        <v>10198987</v>
       </c>
       <c r="D58">
-        <v>16949</v>
+        <v>16947</v>
       </c>
       <c r="E58">
-        <v>10488896</v>
+        <v>10182040</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>505845</v>
+        <v>198987</v>
       </c>
       <c r="H58">
-        <v>1.0505845</v>
+        <v>1.0198987</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,22 +1926,22 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>10400189</v>
+        <v>10096422</v>
       </c>
       <c r="D59">
-        <v>16949</v>
+        <v>16947</v>
       </c>
       <c r="E59">
-        <v>10383240</v>
+        <v>10079475</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>400189</v>
+        <v>96422</v>
       </c>
       <c r="H59">
-        <v>1.0400189</v>
+        <v>1.0096422</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,22 +1952,22 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>10278365</v>
+        <v>9978162</v>
       </c>
       <c r="D60">
-        <v>2165</v>
+        <v>387</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>10276200</v>
+        <v>9977775</v>
       </c>
       <c r="G60">
-        <v>278365</v>
+        <v>-21838</v>
       </c>
       <c r="H60">
-        <v>1.0278365</v>
+        <v>0.9978162</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,22 +1978,22 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>10337765</v>
+        <v>10035837</v>
       </c>
       <c r="D61">
-        <v>18035</v>
+        <v>13272</v>
       </c>
       <c r="E61">
-        <v>10319730</v>
+        <v>10022565</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>337765</v>
+        <v>35837</v>
       </c>
       <c r="H61">
-        <v>1.0337765</v>
+        <v>1.0035837</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,22 +2004,22 @@
         <v>8</v>
       </c>
       <c r="C62">
-        <v>10537169</v>
+        <v>10229499</v>
       </c>
       <c r="D62">
-        <v>3079</v>
+        <v>2849</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>10534090</v>
+        <v>10226650</v>
       </c>
       <c r="G62">
-        <v>537169</v>
+        <v>229499</v>
       </c>
       <c r="H62">
-        <v>1.0537169</v>
+        <v>1.0229499</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,74 +2030,74 @@
         <v>9</v>
       </c>
       <c r="C63">
-        <v>10475494</v>
+        <v>10169624</v>
       </c>
       <c r="D63">
-        <v>12832</v>
+        <v>11431</v>
       </c>
       <c r="E63">
-        <v>10462662</v>
+        <v>10158193</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>475494</v>
+        <v>169624</v>
       </c>
       <c r="H63">
-        <v>1.0475494</v>
+        <v>1.0169624</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>10456972</v>
+        <v>10151641</v>
       </c>
       <c r="D64">
-        <v>12832</v>
+        <v>61</v>
       </c>
       <c r="E64">
-        <v>10444140</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>10151580</v>
       </c>
       <c r="G64">
-        <v>456972</v>
+        <v>151641</v>
       </c>
       <c r="H64">
-        <v>1.0456972</v>
+        <v>1.0151641</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>10466422</v>
+        <v>10151641</v>
       </c>
       <c r="D65">
-        <v>12832</v>
+        <v>2256</v>
       </c>
       <c r="E65">
-        <v>10453590</v>
+        <v>10149385</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>466422</v>
+        <v>151641</v>
       </c>
       <c r="H65">
-        <v>1.0466422</v>
+        <v>1.0151641</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,100 +2108,100 @@
         <v>8</v>
       </c>
       <c r="C66">
-        <v>10326940</v>
+        <v>10016218</v>
       </c>
       <c r="D66">
-        <v>3165</v>
+        <v>3843</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>10323775</v>
+        <v>10012375</v>
       </c>
       <c r="G66">
-        <v>326940</v>
+        <v>16218</v>
       </c>
       <c r="H66">
-        <v>1.032694</v>
+        <v>1.0016218</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67">
-        <v>10267265</v>
+        <v>9958343</v>
       </c>
       <c r="D67">
-        <v>7323</v>
+        <v>3843</v>
       </c>
       <c r="E67">
-        <v>10259942</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>9954500</v>
       </c>
       <c r="G67">
-        <v>267265</v>
+        <v>-41657</v>
       </c>
       <c r="H67">
-        <v>1.0267265</v>
+        <v>0.9958343</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>10002099</v>
+        <v>10236143</v>
       </c>
       <c r="D68">
-        <v>4059</v>
+        <v>851</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>10235292</v>
       </c>
       <c r="F68">
-        <v>9998040</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>2099</v>
+        <v>236143</v>
       </c>
       <c r="H68">
-        <v>1.0002099</v>
+        <v>1.0236143</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>9888999</v>
+        <v>10345681</v>
       </c>
       <c r="D69">
-        <v>3339</v>
+        <v>851</v>
       </c>
       <c r="E69">
-        <v>9885660</v>
+        <v>10344830</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>-111001</v>
+        <v>345681</v>
       </c>
       <c r="H69">
-        <v>0.9888999000000001</v>
+        <v>1.0345681</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,22 +2212,22 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>9962931</v>
+        <v>10423047</v>
       </c>
       <c r="D70">
-        <v>3339</v>
+        <v>851</v>
       </c>
       <c r="E70">
-        <v>9959592</v>
+        <v>10422196</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>-37069</v>
+        <v>423047</v>
       </c>
       <c r="H70">
-        <v>0.9962931</v>
+        <v>1.0423047</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,22 +2238,22 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>9979035</v>
+        <v>10439899</v>
       </c>
       <c r="D71">
-        <v>3339</v>
+        <v>851</v>
       </c>
       <c r="E71">
-        <v>9975696</v>
+        <v>10439048</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>-20965</v>
+        <v>439899</v>
       </c>
       <c r="H71">
-        <v>0.9979035000000001</v>
+        <v>1.0439899</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,22 +2264,22 @@
         <v>8</v>
       </c>
       <c r="C72">
-        <v>10143003</v>
+        <v>10611483</v>
       </c>
       <c r="D72">
-        <v>1753</v>
+        <v>533</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>10141250</v>
+        <v>10610950</v>
       </c>
       <c r="G72">
-        <v>143003</v>
+        <v>611483</v>
       </c>
       <c r="H72">
-        <v>1.0143003</v>
+        <v>1.0611483</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,22 +2290,22 @@
         <v>9</v>
       </c>
       <c r="C73">
-        <v>10309253</v>
+        <v>10785433</v>
       </c>
       <c r="D73">
-        <v>23773</v>
+        <v>7563</v>
       </c>
       <c r="E73">
-        <v>10285480</v>
+        <v>10777870</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>309253</v>
+        <v>785433</v>
       </c>
       <c r="H73">
-        <v>1.0309253</v>
+        <v>1.0785433</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,22 +2316,22 @@
         <v>8</v>
       </c>
       <c r="C74">
-        <v>10087037</v>
+        <v>10552579</v>
       </c>
       <c r="D74">
-        <v>1332</v>
+        <v>149</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>10085705</v>
+        <v>10552430</v>
       </c>
       <c r="G74">
-        <v>87037</v>
+        <v>552579</v>
       </c>
       <c r="H74">
-        <v>1.0087037</v>
+        <v>1.0552579</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,74 +2342,74 @@
         <v>9</v>
       </c>
       <c r="C75">
-        <v>10189142</v>
+        <v>10659409</v>
       </c>
       <c r="D75">
-        <v>12052</v>
+        <v>6507</v>
       </c>
       <c r="E75">
-        <v>10177090</v>
+        <v>10652902</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>189142</v>
+        <v>659409</v>
       </c>
       <c r="H75">
-        <v>1.0189142</v>
+        <v>1.0659409</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C76">
-        <v>10429767</v>
+        <v>10911284</v>
       </c>
       <c r="D76">
-        <v>12052</v>
+        <v>2134</v>
       </c>
       <c r="E76">
-        <v>10417715</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>10909150</v>
       </c>
       <c r="G76">
-        <v>429767</v>
+        <v>911284</v>
       </c>
       <c r="H76">
-        <v>1.0429767</v>
+        <v>1.0911284</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77">
-        <v>10329282</v>
+        <v>10960984</v>
       </c>
       <c r="D77">
-        <v>12052</v>
+        <v>602</v>
       </c>
       <c r="E77">
-        <v>10317230</v>
+        <v>10960382</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>329282</v>
+        <v>960984</v>
       </c>
       <c r="H77">
-        <v>1.0329282</v>
+        <v>1.0960984</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,22 +2420,22 @@
         <v>8</v>
       </c>
       <c r="C78">
-        <v>10283852</v>
+        <v>10912722</v>
       </c>
       <c r="D78">
-        <v>2932</v>
+        <v>4162</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>10280920</v>
+        <v>10908560</v>
       </c>
       <c r="G78">
-        <v>283852</v>
+        <v>912722</v>
       </c>
       <c r="H78">
-        <v>1.0283852</v>
+        <v>1.0912722</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,22 +2446,22 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>10388522</v>
+        <v>11023782</v>
       </c>
       <c r="D79">
-        <v>14634</v>
+        <v>14758</v>
       </c>
       <c r="E79">
-        <v>10373888</v>
+        <v>11009024</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>388522</v>
+        <v>1023782</v>
       </c>
       <c r="H79">
-        <v>1.0388522</v>
+        <v>1.1023782</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,22 +2472,22 @@
         <v>8</v>
       </c>
       <c r="C80">
-        <v>10510042</v>
+        <v>11152742</v>
       </c>
       <c r="D80">
-        <v>1597</v>
+        <v>2627</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>10508445</v>
+        <v>11150115</v>
       </c>
       <c r="G80">
-        <v>510042</v>
+        <v>1152742</v>
       </c>
       <c r="H80">
-        <v>1.0510042</v>
+        <v>1.1152742</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,74 +2498,74 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>10354627</v>
+        <v>10987837</v>
       </c>
       <c r="D81">
-        <v>22669</v>
+        <v>5047</v>
       </c>
       <c r="E81">
-        <v>10331958</v>
+        <v>10982790</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>354627</v>
+        <v>987837</v>
       </c>
       <c r="H81">
-        <v>1.0354627</v>
+        <v>1.0987837</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C82">
-        <v>10433494</v>
+        <v>11071672</v>
       </c>
       <c r="D82">
-        <v>22669</v>
+        <v>3697</v>
       </c>
       <c r="E82">
-        <v>10410825</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>11067975</v>
       </c>
       <c r="G82">
-        <v>433494</v>
+        <v>1071672</v>
       </c>
       <c r="H82">
-        <v>1.0433494</v>
+        <v>1.1071672</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83">
-        <v>10330243</v>
+        <v>11199922</v>
       </c>
       <c r="D83">
-        <v>22669</v>
+        <v>26620</v>
       </c>
       <c r="E83">
-        <v>10307574</v>
+        <v>11173302</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>330243</v>
+        <v>1199922</v>
       </c>
       <c r="H83">
-        <v>1.0330243</v>
+        <v>1.1199922</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,22 +2576,22 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>10443019</v>
+        <v>11322170</v>
       </c>
       <c r="D84">
-        <v>22669</v>
+        <v>26620</v>
       </c>
       <c r="E84">
-        <v>10420350</v>
+        <v>11295550</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>443019</v>
+        <v>1322170</v>
       </c>
       <c r="H84">
-        <v>1.0443019</v>
+        <v>1.132217</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,74 +2602,74 @@
         <v>8</v>
       </c>
       <c r="C85">
-        <v>10514266</v>
+        <v>11399401</v>
       </c>
       <c r="D85">
-        <v>3161</v>
+        <v>1301</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>10511105</v>
+        <v>11398100</v>
       </c>
       <c r="G85">
-        <v>514266</v>
+        <v>1399401</v>
       </c>
       <c r="H85">
-        <v>1.0514266</v>
+        <v>1.1399401</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86">
-        <v>10563326</v>
+        <v>11452601</v>
       </c>
       <c r="D86">
-        <v>14740</v>
+        <v>1301</v>
       </c>
       <c r="E86">
-        <v>10548586</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>11451300</v>
       </c>
       <c r="G86">
-        <v>563326</v>
+        <v>1452601</v>
       </c>
       <c r="H86">
-        <v>1.0563326</v>
+        <v>1.1452601</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>10557581</v>
+        <v>11492501</v>
       </c>
       <c r="D87">
-        <v>3821</v>
+        <v>1301</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>10553760</v>
+        <v>11491200</v>
       </c>
       <c r="G87">
-        <v>557581</v>
+        <v>1492501</v>
       </c>
       <c r="H87">
-        <v>1.0557581</v>
+        <v>1.1492501</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,22 +2680,22 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>10557581</v>
+        <v>11492501</v>
       </c>
       <c r="D88">
-        <v>7949</v>
+        <v>8787</v>
       </c>
       <c r="E88">
-        <v>10549632</v>
+        <v>11483714</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>557581</v>
+        <v>1492501</v>
       </c>
       <c r="H88">
-        <v>1.0557581</v>
+        <v>1.1492501</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,22 +2706,22 @@
         <v>8</v>
       </c>
       <c r="C89">
-        <v>10597133</v>
+        <v>11535555</v>
       </c>
       <c r="D89">
-        <v>1933</v>
+        <v>2955</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>10595200</v>
+        <v>11532600</v>
       </c>
       <c r="G89">
-        <v>597133</v>
+        <v>1535555</v>
       </c>
       <c r="H89">
-        <v>1.0597133</v>
+        <v>1.1535555</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,22 +2732,22 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>10547853</v>
+        <v>11481915</v>
       </c>
       <c r="D90">
-        <v>24133</v>
+        <v>16599</v>
       </c>
       <c r="E90">
-        <v>10523720</v>
+        <v>11465316</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>547853</v>
+        <v>1481915</v>
       </c>
       <c r="H90">
-        <v>1.0547853</v>
+        <v>1.1481915</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,22 +2758,22 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>10589273</v>
+        <v>11527041</v>
       </c>
       <c r="D91">
-        <v>3543</v>
+        <v>3011</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>10585730</v>
+        <v>11524030</v>
       </c>
       <c r="G91">
-        <v>589273</v>
+        <v>1527041</v>
       </c>
       <c r="H91">
-        <v>1.0589273</v>
+        <v>1.1527041</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,22 +2784,22 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>10676143</v>
+        <v>11621611</v>
       </c>
       <c r="D92">
-        <v>12893</v>
+        <v>19111</v>
       </c>
       <c r="E92">
-        <v>10663250</v>
+        <v>11602500</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>676143</v>
+        <v>1621611</v>
       </c>
       <c r="H92">
-        <v>1.0676143</v>
+        <v>1.1621611</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,22 +2810,22 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>10759905</v>
+        <v>11712751</v>
       </c>
       <c r="D93">
-        <v>4005</v>
+        <v>3526</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>10755900</v>
+        <v>11709225</v>
       </c>
       <c r="G93">
-        <v>759905</v>
+        <v>1712751</v>
       </c>
       <c r="H93">
-        <v>1.0759905</v>
+        <v>1.1712751</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,22 +2836,22 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>10772485</v>
+        <v>11726446</v>
       </c>
       <c r="D94">
-        <v>7306</v>
+        <v>15489</v>
       </c>
       <c r="E94">
-        <v>10765179</v>
+        <v>11710957</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>772485</v>
+        <v>1726446</v>
       </c>
       <c r="H94">
-        <v>1.0772485</v>
+        <v>1.1726446</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,22 +2862,22 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>10679218</v>
+        <v>11624985</v>
       </c>
       <c r="D95">
-        <v>793</v>
+        <v>3710</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>10678425</v>
+        <v>11621275</v>
       </c>
       <c r="G95">
-        <v>679218</v>
+        <v>1624985</v>
       </c>
       <c r="H95">
-        <v>1.0679218</v>
+        <v>1.1624985</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,22 +2888,22 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>10827358</v>
+        <v>11786205</v>
       </c>
       <c r="D96">
-        <v>16651</v>
+        <v>22413</v>
       </c>
       <c r="E96">
-        <v>10810707</v>
+        <v>11763792</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>827358</v>
+        <v>1786205</v>
       </c>
       <c r="H96">
-        <v>1.0827358</v>
+        <v>1.1786205</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,22 +2914,22 @@
         <v>8</v>
       </c>
       <c r="C97">
-        <v>10831328</v>
+        <v>11790525</v>
       </c>
       <c r="D97">
-        <v>378</v>
+        <v>3645</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>10830950</v>
+        <v>11786880</v>
       </c>
       <c r="G97">
-        <v>831328</v>
+        <v>1790525</v>
       </c>
       <c r="H97">
-        <v>1.0831328</v>
+        <v>1.1790525</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,126 +2940,126 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>10831328</v>
+        <v>11790525</v>
       </c>
       <c r="D98">
-        <v>10902</v>
+        <v>18554</v>
       </c>
       <c r="E98">
-        <v>10820426</v>
+        <v>11771971</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>831328</v>
+        <v>1790525</v>
       </c>
       <c r="H98">
-        <v>1.0831328</v>
+        <v>1.1790525</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>10733420</v>
+        <v>11684007</v>
       </c>
       <c r="D99">
-        <v>10902</v>
+        <v>2007</v>
       </c>
       <c r="E99">
-        <v>10722518</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>11682000</v>
       </c>
       <c r="G99">
-        <v>733420</v>
+        <v>1684007</v>
       </c>
       <c r="H99">
-        <v>1.073342</v>
+        <v>1.1684007</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>10909734</v>
+        <v>11459607</v>
       </c>
       <c r="D100">
-        <v>10902</v>
+        <v>13095</v>
       </c>
       <c r="E100">
-        <v>10898832</v>
+        <v>11446512</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>909734</v>
+        <v>1459607</v>
       </c>
       <c r="H100">
-        <v>1.0909734</v>
+        <v>1.1459607</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C101">
-        <v>10913714</v>
+        <v>11463787</v>
       </c>
       <c r="D101">
-        <v>10902</v>
+        <v>1297</v>
       </c>
       <c r="E101">
-        <v>10902812</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>11462490</v>
       </c>
       <c r="G101">
-        <v>913714</v>
+        <v>1463787</v>
       </c>
       <c r="H101">
-        <v>1.0913714</v>
+        <v>1.1463787</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C102">
-        <v>10837298</v>
+        <v>11608217</v>
       </c>
       <c r="D102">
-        <v>10902</v>
+        <v>20165</v>
       </c>
       <c r="E102">
-        <v>10826396</v>
+        <v>11588052</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>837298</v>
+        <v>1608217</v>
       </c>
       <c r="H102">
-        <v>1.0837298</v>
+        <v>1.1608217</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,74 +3070,74 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>10817796</v>
+        <v>11587343</v>
       </c>
       <c r="D103">
-        <v>1046</v>
+        <v>2383</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>10816750</v>
+        <v>11584960</v>
       </c>
       <c r="G103">
-        <v>817796</v>
+        <v>1587343</v>
       </c>
       <c r="H103">
-        <v>1.0817796</v>
+        <v>1.1587343</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104">
-        <v>10695296</v>
+        <v>11456143</v>
       </c>
       <c r="D104">
-        <v>1046</v>
+        <v>22420</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>11433723</v>
       </c>
       <c r="F104">
-        <v>10694250</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>695296</v>
+        <v>1456143</v>
       </c>
       <c r="H104">
-        <v>1.0695296</v>
+        <v>1.1456143</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105">
-        <v>10707546</v>
+        <v>11454058</v>
       </c>
       <c r="D105">
-        <v>16086</v>
+        <v>22420</v>
       </c>
       <c r="E105">
-        <v>10691460</v>
+        <v>11431638</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>707546</v>
+        <v>1454058</v>
       </c>
       <c r="H105">
-        <v>1.0707546</v>
+        <v>1.1454058</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,22 +3148,22 @@
         <v>8</v>
       </c>
       <c r="C106">
-        <v>10747716</v>
+        <v>11497009</v>
       </c>
       <c r="D106">
-        <v>3216</v>
+        <v>4309</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>10744500</v>
+        <v>11492700</v>
       </c>
       <c r="G106">
-        <v>747716</v>
+        <v>1497009</v>
       </c>
       <c r="H106">
-        <v>1.0747716</v>
+        <v>1.1497009</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,22 +3174,22 @@
         <v>9</v>
       </c>
       <c r="C107">
-        <v>10871216</v>
+        <v>11629109</v>
       </c>
       <c r="D107">
-        <v>1836</v>
+        <v>22359</v>
       </c>
       <c r="E107">
-        <v>10869380</v>
+        <v>11606750</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>871216</v>
+        <v>1629109</v>
       </c>
       <c r="H107">
-        <v>1.0871216</v>
+        <v>1.1629109</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,22 +3200,22 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>10675400</v>
+        <v>11420009</v>
       </c>
       <c r="D108">
-        <v>1836</v>
+        <v>22359</v>
       </c>
       <c r="E108">
-        <v>10673564</v>
+        <v>11397650</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>675400</v>
+        <v>1420009</v>
       </c>
       <c r="H108">
-        <v>1.06754</v>
+        <v>1.1420009</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,22 +3226,22 @@
         <v>8</v>
       </c>
       <c r="C109">
-        <v>10714404</v>
+        <v>11461659</v>
       </c>
       <c r="D109">
-        <v>129</v>
+        <v>3399</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>10714275</v>
+        <v>11458260</v>
       </c>
       <c r="G109">
-        <v>714404</v>
+        <v>1461659</v>
       </c>
       <c r="H109">
-        <v>1.0714404</v>
+        <v>1.1461659</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,22 +3252,22 @@
         <v>9</v>
       </c>
       <c r="C110">
-        <v>10846679</v>
+        <v>11603119</v>
       </c>
       <c r="D110">
-        <v>10539</v>
+        <v>19659</v>
       </c>
       <c r="E110">
-        <v>10836140</v>
+        <v>11583460</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>846679</v>
+        <v>1603119</v>
       </c>
       <c r="H110">
-        <v>1.0846679</v>
+        <v>1.1603119</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,22 +3278,22 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>10956299</v>
+        <v>11720299</v>
       </c>
       <c r="D111">
-        <v>10539</v>
+        <v>19659</v>
       </c>
       <c r="E111">
-        <v>10945760</v>
+        <v>11700640</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>956299</v>
+        <v>1720299</v>
       </c>
       <c r="H111">
-        <v>1.0956299</v>
+        <v>1.1720299</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,126 +3304,126 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>11051709</v>
+        <v>11822289</v>
       </c>
       <c r="D112">
-        <v>10539</v>
+        <v>19659</v>
       </c>
       <c r="E112">
-        <v>11041170</v>
+        <v>11802630</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>1051709</v>
+        <v>1822289</v>
       </c>
       <c r="H112">
-        <v>1.1051709</v>
+        <v>1.1822289</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C113">
-        <v>11037499</v>
+        <v>11807099</v>
       </c>
       <c r="D113">
-        <v>3679</v>
+        <v>19659</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>11787440</v>
       </c>
       <c r="F113">
-        <v>11033820</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>1037499</v>
+        <v>1807099</v>
       </c>
       <c r="H113">
-        <v>1.1037499</v>
+        <v>1.1807099</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114">
-        <v>11062519</v>
+        <v>11783229</v>
       </c>
       <c r="D114">
-        <v>3679</v>
+        <v>3929</v>
       </c>
       <c r="E114">
-        <v>11058840</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>11779300</v>
       </c>
       <c r="G114">
-        <v>1062519</v>
+        <v>1783229</v>
       </c>
       <c r="H114">
-        <v>1.1062519</v>
+        <v>1.1783229</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115">
-        <v>11025799</v>
+        <v>11769904</v>
       </c>
       <c r="D115">
-        <v>3679</v>
+        <v>18379</v>
       </c>
       <c r="E115">
-        <v>11022120</v>
+        <v>11751525</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115">
-        <v>1025799</v>
+        <v>1769904</v>
       </c>
       <c r="H115">
-        <v>1.1025799</v>
+        <v>1.1769904</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C116">
-        <v>10915639</v>
+        <v>11652454</v>
       </c>
       <c r="D116">
-        <v>3679</v>
+        <v>4029</v>
       </c>
       <c r="E116">
-        <v>10911960</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>11648425</v>
       </c>
       <c r="G116">
-        <v>915639</v>
+        <v>1652454</v>
       </c>
       <c r="H116">
-        <v>1.0915639</v>
+        <v>1.1652454</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,48 +3434,48 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>10752439</v>
+        <v>11756574</v>
       </c>
       <c r="D117">
-        <v>3679</v>
+        <v>4029</v>
       </c>
       <c r="E117">
-        <v>10748760</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>11752545</v>
       </c>
       <c r="G117">
-        <v>752439</v>
+        <v>1756574</v>
       </c>
       <c r="H117">
-        <v>1.0752439</v>
+        <v>1.1756574</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C118">
-        <v>10715719</v>
+        <v>11821649</v>
       </c>
       <c r="D118">
-        <v>3679</v>
+        <v>6899</v>
       </c>
       <c r="E118">
-        <v>10712040</v>
+        <v>11814750</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>715719</v>
+        <v>1821649</v>
       </c>
       <c r="H118">
-        <v>1.0715719</v>
+        <v>1.1821649</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,22 +3486,22 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>10699399</v>
+        <v>11803649</v>
       </c>
       <c r="D119">
-        <v>3679</v>
+        <v>6899</v>
       </c>
       <c r="E119">
-        <v>10695720</v>
+        <v>11796750</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>699399</v>
+        <v>1803649</v>
       </c>
       <c r="H119">
-        <v>1.0699399</v>
+        <v>1.1803649</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,22 +3512,22 @@
         <v>8</v>
       </c>
       <c r="C120">
-        <v>10530079</v>
+        <v>11616899</v>
       </c>
       <c r="D120">
-        <v>3264</v>
+        <v>944</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>10526815</v>
+        <v>11615955</v>
       </c>
       <c r="G120">
-        <v>530079</v>
+        <v>1616899</v>
       </c>
       <c r="H120">
-        <v>1.0530079</v>
+        <v>1.1616899</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,22 +3538,22 @@
         <v>9</v>
       </c>
       <c r="C121">
-        <v>10279169</v>
+        <v>11340029</v>
       </c>
       <c r="D121">
-        <v>3689</v>
+        <v>13349</v>
       </c>
       <c r="E121">
-        <v>10275480</v>
+        <v>11326680</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121">
-        <v>279169</v>
+        <v>1340029</v>
       </c>
       <c r="H121">
-        <v>1.0279169</v>
+        <v>1.1340029</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,22 +3564,22 @@
         <v>8</v>
       </c>
       <c r="C122">
-        <v>10273304</v>
+        <v>11333564</v>
       </c>
       <c r="D122">
-        <v>1554</v>
+        <v>2964</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>10271750</v>
+        <v>11330600</v>
       </c>
       <c r="G122">
-        <v>273304</v>
+        <v>1333564</v>
       </c>
       <c r="H122">
-        <v>1.0273304</v>
+        <v>1.1333564</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,22 +3590,22 @@
         <v>9</v>
       </c>
       <c r="C123">
-        <v>10171154</v>
+        <v>11220884</v>
       </c>
       <c r="D123">
-        <v>914</v>
+        <v>17729</v>
       </c>
       <c r="E123">
-        <v>10170240</v>
+        <v>11203155</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>171154</v>
+        <v>1220884</v>
       </c>
       <c r="H123">
-        <v>1.0171154</v>
+        <v>1.1220884</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,22 +3616,22 @@
         <v>10</v>
       </c>
       <c r="C124">
-        <v>10199954</v>
+        <v>11252609</v>
       </c>
       <c r="D124">
-        <v>914</v>
+        <v>17729</v>
       </c>
       <c r="E124">
-        <v>10199040</v>
+        <v>11234880</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>199954</v>
+        <v>1252609</v>
       </c>
       <c r="H124">
-        <v>1.0199954</v>
+        <v>1.1252609</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,22 +3642,22 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>10071314</v>
+        <v>11110904</v>
       </c>
       <c r="D125">
-        <v>914</v>
+        <v>17729</v>
       </c>
       <c r="E125">
-        <v>10070400</v>
+        <v>11093175</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
       <c r="G125">
-        <v>71314</v>
+        <v>1110904</v>
       </c>
       <c r="H125">
-        <v>1.0071314</v>
+        <v>1.1110904</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,22 +3668,22 @@
         <v>10</v>
       </c>
       <c r="C126">
-        <v>10246034</v>
+        <v>11303369</v>
       </c>
       <c r="D126">
-        <v>914</v>
+        <v>17729</v>
       </c>
       <c r="E126">
-        <v>10245120</v>
+        <v>11285640</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
       <c r="G126">
-        <v>246034</v>
+        <v>1303369</v>
       </c>
       <c r="H126">
-        <v>1.0246034</v>
+        <v>1.1303369</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,178 +3694,178 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>10282514</v>
+        <v>11343554</v>
       </c>
       <c r="D127">
-        <v>914</v>
+        <v>17729</v>
       </c>
       <c r="E127">
-        <v>10281600</v>
+        <v>11325825</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>282514</v>
+        <v>1343554</v>
       </c>
       <c r="H127">
-        <v>1.0282514</v>
+        <v>1.1343554</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C128">
-        <v>10125074</v>
+        <v>11170124</v>
       </c>
       <c r="D128">
-        <v>914</v>
+        <v>1204</v>
       </c>
       <c r="E128">
-        <v>10124160</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>11168920</v>
       </c>
       <c r="G128">
-        <v>125074</v>
+        <v>1170124</v>
       </c>
       <c r="H128">
-        <v>1.0125074</v>
+        <v>1.1170124</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129">
-        <v>10157714</v>
+        <v>11133059</v>
       </c>
       <c r="D129">
-        <v>3444</v>
+        <v>24059</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>11109000</v>
       </c>
       <c r="F129">
-        <v>10154270</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>157714</v>
+        <v>1133059</v>
       </c>
       <c r="H129">
-        <v>1.0157714</v>
+        <v>1.1133059</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C130">
-        <v>10191524</v>
+        <v>11095259</v>
       </c>
       <c r="D130">
-        <v>16564</v>
+        <v>3179</v>
       </c>
       <c r="E130">
-        <v>10174960</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>11092080</v>
       </c>
       <c r="G130">
-        <v>191524</v>
+        <v>1095259</v>
       </c>
       <c r="H130">
-        <v>1.0191524</v>
+        <v>1.1095259</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C131">
-        <v>10313114</v>
+        <v>10972559</v>
       </c>
       <c r="D131">
-        <v>16564</v>
+        <v>9134</v>
       </c>
       <c r="E131">
-        <v>10296550</v>
+        <v>10963425</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>313114</v>
+        <v>972559</v>
       </c>
       <c r="H131">
-        <v>1.0313114</v>
+        <v>1.0972559</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C132">
-        <v>10413474</v>
+        <v>11079419</v>
       </c>
       <c r="D132">
-        <v>16564</v>
+        <v>1499</v>
       </c>
       <c r="E132">
-        <v>10396910</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>11077920</v>
       </c>
       <c r="G132">
-        <v>413474</v>
+        <v>1079419</v>
       </c>
       <c r="H132">
-        <v>1.0413474</v>
+        <v>1.1079419</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C133">
-        <v>10477164</v>
+        <v>11041739</v>
       </c>
       <c r="D133">
-        <v>16564</v>
+        <v>12039</v>
       </c>
       <c r="E133">
-        <v>10460600</v>
+        <v>11029700</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133">
-        <v>477164</v>
+        <v>1041739</v>
       </c>
       <c r="H133">
-        <v>1.0477164</v>
+        <v>1.1041739</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,126 +3876,126 @@
         <v>8</v>
       </c>
       <c r="C134">
-        <v>10398034</v>
+        <v>10958304</v>
       </c>
       <c r="D134">
-        <v>1179</v>
+        <v>1379</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>10396855</v>
+        <v>10956925</v>
       </c>
       <c r="G134">
-        <v>398034</v>
+        <v>958304</v>
       </c>
       <c r="H134">
-        <v>1.0398034</v>
+        <v>1.0958304</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C135">
-        <v>10339559</v>
+        <v>10896679</v>
       </c>
       <c r="D135">
-        <v>1179</v>
+        <v>4839</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>10891840</v>
       </c>
       <c r="F135">
-        <v>10338380</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>339559</v>
+        <v>896679</v>
       </c>
       <c r="H135">
-        <v>1.0339559</v>
+        <v>1.0896679</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>10526679</v>
+        <v>10718919</v>
       </c>
       <c r="D136">
-        <v>24759</v>
+        <v>4419</v>
       </c>
       <c r="E136">
-        <v>10501920</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>10714500</v>
       </c>
       <c r="G136">
-        <v>526679</v>
+        <v>718919</v>
       </c>
       <c r="H136">
-        <v>1.0526679</v>
+        <v>1.0718919</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137">
-        <v>10538559</v>
+        <v>10695109</v>
       </c>
       <c r="D137">
-        <v>529</v>
+        <v>22009</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>10673100</v>
       </c>
       <c r="F137">
-        <v>10538030</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>538559</v>
+        <v>695109</v>
       </c>
       <c r="H137">
-        <v>1.0538559</v>
+        <v>1.0695109</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C138">
-        <v>10550294</v>
+        <v>10699129</v>
       </c>
       <c r="D138">
-        <v>5974</v>
+        <v>1029</v>
       </c>
       <c r="E138">
-        <v>10544320</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>10698100</v>
       </c>
       <c r="G138">
-        <v>550294</v>
+        <v>699129</v>
       </c>
       <c r="H138">
-        <v>1.0550294</v>
+        <v>1.0699129</v>
       </c>
     </row>
   </sheetData>
